--- a/PROYECTO/MATRIZ.xlsx
+++ b/PROYECTO/MATRIZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BREND\Documents\BREND_ESCUELA_2\9_SEMESTRE\COMPILADORES\TAREAS\PROYECTO_FINAL_BRANDON\LEXICO _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E2AEDC-6B86-4E6D-A69F-C2164B79A1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80522B5C-9C34-47CD-9282-6C92AC253457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65B481A9-0DBF-4452-B56D-F975E93E805A}"/>
   </bookViews>
@@ -937,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507318A9-D3AF-4AB5-B46B-3621239CCE9B}">
-  <dimension ref="C1:AE32"/>
+  <dimension ref="C1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="O21" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2403,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2493,7 +2493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2583,7 +2583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2673,7 +2673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2763,7 +2763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2853,7 +2853,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2943,7 +2943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3033,7 +3033,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3123,7 +3123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3213,7 +3213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3302,8 +3302,9 @@
       <c r="AE26" s="6">
         <v>124</v>
       </c>
+      <c r="AF26" s="8"/>
     </row>
-    <row r="27" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="5">
         <v>24</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="3:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="5">
         <v>25</v>
       </c>
@@ -3472,20 +3473,17 @@
         <v>203</v>
       </c>
       <c r="AC28" s="7">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="AD28" s="7">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="AE28" s="7">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="X32" s="8"/>
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:AE27 AE28 D28:T28">
+  <conditionalFormatting sqref="D3:AE27 D28:T28 AC28:AE28">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
       <formula>0</formula>
       <formula>25</formula>
@@ -3499,7 +3497,7 @@
       <formula>220</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U28:AD28">
+  <conditionalFormatting sqref="U28:AB28">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
       <formula>0</formula>
       <formula>25</formula>
